--- a/КПО_ТемыКурсовогоПроекта.xlsx
+++ b/КПО_ТемыКурсовогоПроекта.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Программирование_СТанк\КОНСТРУИРОВАНИЕ_ПО\6_КурсовоеПроектирование_КонструированиеПО\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4B5D86-831B-413D-B91C-186C829EE0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="011-21" sheetId="3" r:id="rId1"/>
+    <sheet name="012-21" sheetId="4" r:id="rId2"/>
+    <sheet name="013-21" sheetId="2" r:id="rId3"/>
+    <sheet name="014-21" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +27,491 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{5A5C05C2-A180-437B-B7F4-0EC0238CEDCF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+староста</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="147">
+  <si>
+    <t> Баль Владислав Александрович</t>
+  </si>
+  <si>
+    <t> Безмен Владислав Леонидович</t>
+  </si>
+  <si>
+    <t> Бородин Никита Витальевич</t>
+  </si>
+  <si>
+    <t> Гришин Евгений Юрьевич</t>
+  </si>
+  <si>
+    <t> Завадская Александра Николаевна</t>
+  </si>
+  <si>
+    <t> Масарновская Маргарита Юрьевна</t>
+  </si>
+  <si>
+    <t> Раимова Мариам Ойбековна</t>
+  </si>
+  <si>
+    <t> Рогович Даниил Андреевич</t>
+  </si>
+  <si>
+    <t> Сюнякова Юлия Андреевна</t>
+  </si>
+  <si>
+    <t> Уласевич Никита Васильевич</t>
+  </si>
+  <si>
+    <t> Шведко Артём Сергеевич</t>
+  </si>
+  <si>
+    <t> Белаш Владислав Александрович(ст)</t>
+  </si>
+  <si>
+    <t> Гиринский Матвей Александрович</t>
+  </si>
+  <si>
+    <t> Добрынин Федор Владимирович</t>
+  </si>
+  <si>
+    <t> Желдак Вадим Владимирович</t>
+  </si>
+  <si>
+    <t> Журавский Герман Александрович</t>
+  </si>
+  <si>
+    <t> Захаренко Никита Сергеевич</t>
+  </si>
+  <si>
+    <t> Захаров Антон Павлович</t>
+  </si>
+  <si>
+    <t> Кергет Сергей Алексеевич</t>
+  </si>
+  <si>
+    <t> Крюков Алексей Юрьевич</t>
+  </si>
+  <si>
+    <t> Кункевич Евгений Игоревич</t>
+  </si>
+  <si>
+    <t> Свиридов Николай Витальевич</t>
+  </si>
+  <si>
+    <t> Скворчевский Александр Юрьевич</t>
+  </si>
+  <si>
+    <t> Шалимо Алексей Александрович</t>
+  </si>
+  <si>
+    <t>Солтан Максим Викторович</t>
+  </si>
+  <si>
+    <t>Общая тема</t>
+  </si>
+  <si>
+    <t>ветка разработки</t>
+  </si>
+  <si>
+    <t>готовая тема</t>
+  </si>
+  <si>
+    <t>учет цветов на складе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цветочный магазин, </t>
+  </si>
+  <si>
+    <t>авторизация сотрудников.</t>
+  </si>
+  <si>
+    <t>клиенты магазина.</t>
+  </si>
+  <si>
+    <t>бригада</t>
+  </si>
+  <si>
+    <t>"Органайзер задач"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработка архитектуры приложеня </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Применение технологий программирования в приложении </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользовательский текстовый редактор, </t>
+  </si>
+  <si>
+    <t>интерфейс приложения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">реализация алгоритмов приложения. </t>
+  </si>
+  <si>
+    <t>"Терминал космического боевого корабля".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализация алгоритмов приложения </t>
+  </si>
+  <si>
+    <t>Керножицкий Андрей (р)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трухов Станислав </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калюжный Клим </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кирилюк Артем </t>
+  </si>
+  <si>
+    <t>Грудинский Кирилл</t>
+  </si>
+  <si>
+    <t>Беть Евгений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кругликовский Максим </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нестерков Дмитрий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сингаевский Григорий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поддубец Павел </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Михайловский Антон </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скордаки Панайота </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кожемякин Никита </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Черепковский Максим </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рабштина Юрий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Садовский Антон </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Савастюк Глеб </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мацкевич Максим </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Господарик Полина </t>
+  </si>
+  <si>
+    <t>Валинская Илона</t>
+  </si>
+  <si>
+    <t>Панасенко Елизавета</t>
+  </si>
+  <si>
+    <t>Хаменя Александра</t>
+  </si>
+  <si>
+    <t>Дубровский Владислав</t>
+  </si>
+  <si>
+    <t>Царикевич Валентин</t>
+  </si>
+  <si>
+    <t>Журавлев Федор</t>
+  </si>
+  <si>
+    <t>Ярошевский Максим</t>
+  </si>
+  <si>
+    <t>Радионов Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Машкарева Мария </t>
+  </si>
+  <si>
+    <t xml:space="preserve">серверная чатсь. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">клиенсткая часть. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">серверная часть. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Васенков Александр </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов Максим </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мажейко Евгения </t>
+  </si>
+  <si>
+    <t>Качан Иван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Длусский Кирил </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воропай Матвей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киселев Никита </t>
+  </si>
+  <si>
+    <t>Жижов Илья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ермакович Матвей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гвоздь Вячеслав </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Журович Константин </t>
+  </si>
+  <si>
+    <t>Асанов Нариман (Узбекистан)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дубровка Станислав </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маркевич Дмитрий </t>
+  </si>
+  <si>
+    <t>Ишонкулов Азиз (Таджикистан)</t>
+  </si>
+  <si>
+    <t>Аль-штвит Аюб (Ливия)</t>
+  </si>
+  <si>
+    <t>Панасевич  Анастасия</t>
+  </si>
+  <si>
+    <t>Чжао Цяньчэн</t>
+  </si>
+  <si>
+    <t>Титов Даниил</t>
+  </si>
+  <si>
+    <t>Огородник Илья</t>
+  </si>
+  <si>
+    <t>Райкова Юлия</t>
+  </si>
+  <si>
+    <t>Олешкевич Анна</t>
+  </si>
+  <si>
+    <t>Юденкова Яна</t>
+  </si>
+  <si>
+    <t>Гардеев Михаил</t>
+  </si>
+  <si>
+    <t>Колеснева Марина</t>
+  </si>
+  <si>
+    <t>Икбол (Таджикистан)</t>
+  </si>
+  <si>
+    <t>Азхари Моххамед (Судан)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кулаков Тимофей </t>
+  </si>
+  <si>
+    <t>Ткацевич Никита</t>
+  </si>
+  <si>
+    <t>Симонова Анастасия</t>
+  </si>
+  <si>
+    <t>Джаборов Алламырат (Туркменистан)</t>
+  </si>
+  <si>
+    <t>Джумагелдиев Максат (Туркменистан)</t>
+  </si>
+  <si>
+    <t>приложение</t>
+  </si>
+  <si>
+    <t>Клиент-серверное приложение "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учет студентов БНТУ", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система общественного питания БНТУ", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автосервис", </t>
+  </si>
+  <si>
+    <t>ремонт автомобилей.</t>
+  </si>
+  <si>
+    <t>отдел запчастей.</t>
+  </si>
+  <si>
+    <t>клиенты автосервиса.</t>
+  </si>
+  <si>
+    <t>сотрудники автосервиса.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производство оборудования и запасных частей", </t>
+  </si>
+  <si>
+    <t>сотрудники.</t>
+  </si>
+  <si>
+    <t>клиенты.</t>
+  </si>
+  <si>
+    <t>производство.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">склад.  </t>
+  </si>
+  <si>
+    <t>продажа и доставка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исправительное учреждение", </t>
+  </si>
+  <si>
+    <t>условия содержание.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заключенные. </t>
+  </si>
+  <si>
+    <t>материальное обеспечение.</t>
+  </si>
+  <si>
+    <t>Приложение "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школа иностранных языков", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диспетчер авиапарка", </t>
+  </si>
+  <si>
+    <t>серверная чатсть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тюрьма", </t>
+  </si>
+  <si>
+    <t>ЛУ'зан Денис</t>
+  </si>
+  <si>
+    <t>Монич Кирилл</t>
+  </si>
+  <si>
+    <t>Масловский Артем</t>
+  </si>
+  <si>
+    <t>Варпахович Павел</t>
+  </si>
+  <si>
+    <t>Цымбал Олег</t>
+  </si>
+  <si>
+    <t>Дадалко Данила</t>
+  </si>
+  <si>
+    <t>Мойсеенок Дмитрий</t>
+  </si>
+  <si>
+    <t>Щербин Владислав</t>
+  </si>
+  <si>
+    <t>Гринюк Алексей</t>
+  </si>
+  <si>
+    <t>Гибеж Артем</t>
+  </si>
+  <si>
+    <t>Купрацевич Егор (ЯНДЕКСтакси)</t>
+  </si>
+  <si>
+    <t>Бах Иван (КодДювуар)</t>
+  </si>
+  <si>
+    <t>Нарцис (Конго)</t>
+  </si>
+  <si>
+    <t>Тимофеев Владислав</t>
+  </si>
+  <si>
+    <t>Кабак Владислав</t>
+  </si>
+  <si>
+    <t>Лебу-Гамали Ориан (Конго)</t>
+  </si>
+  <si>
+    <t>Монга Эли (Конго)</t>
+  </si>
+  <si>
+    <t>дизайн и архитектура приложения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Такси-компания", </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +519,109 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +629,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +973,2565 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE0AAFE-A621-4A3B-95EA-695C2D9CA8D4}">
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="76.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="1" t="str">
+        <f t="shared" ref="H2:H22" si="0">CONCATENATE(E2,F2,G2)</f>
+        <v>Клиент-серверное приложение "</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Клиент-серверное приложение "Тюрьма", серверная часть. </v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Клиент-серверное приложение "Тюрьма", клиенсткая часть. </v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>CONCATENATE(E23,F23,G23)</f>
+        <v xml:space="preserve">Клиент-серверное приложение "Учет студентов БНТУ", клиенсткая часть. </v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" ref="H24:H34" si="1">CONCATENATE(E24,F24,G24)</f>
+        <v xml:space="preserve">Клиент-серверное приложение "Учет студентов БНТУ", серверная часть. </v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Клиент-серверное приложение "Система общественного питания БНТУ", клиенсткая часть. </v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Клиент-серверное приложение "Система общественного питания БНТУ", серверная чатсь. </v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DEC8A1A1-D4E1-488B-90AE-CCEC9B6CCF68}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D34">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{159A3037-7615-4272-AE47-83DFD140F7C8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DEC8A1A1-D4E1-488B-90AE-CCEC9B6CCF68}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{159A3037-7615-4272-AE47-83DFD140F7C8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D15:D34</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261EE8A9-6111-494E-A4F5-4BD34ABF409B}">
+  <dimension ref="B1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" activeCellId="2" sqref="F11 F12 F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="62.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="44.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="76.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" ref="H2:H22" si="0">CONCATENATE(E2,F2,G2)</f>
+        <v xml:space="preserve">Клиент-серверное приложение "Такси-компания", серверная часть. </v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Клиент-серверное приложение "</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Клиент-серверное приложение "Такси-компания", клиенсткая часть. </v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Клиент-серверное приложение "Такси-компания", дизайн и архитектура приложения.</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>CONCATENATE(E23,F23,G23)</f>
+        <v xml:space="preserve">Клиент-серверное приложение "Учет студентов БНТУ", клиенсткая часть. </v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" ref="H24:H29" si="1">CONCATENATE(E24,F24,G24)</f>
+        <v xml:space="preserve">Клиент-серверное приложение "Учет студентов БНТУ", серверная часть. </v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Клиент-серверное приложение "Система общественного питания БНТУ", клиенсткая часть. </v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Клиент-серверное приложение "Система общественного питания БНТУ", серверная чатсь. </v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{87CE8BD3-6FEF-4F9C-946A-AF1904917DF0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D29">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D935A622-4EE6-4CCD-A3D5-9CAE4113E9FB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{87CE8BD3-6FEF-4F9C-946A-AF1904917DF0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D935A622-4EE6-4CCD-A3D5-9CAE4113E9FB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D15:D29</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2BEF45-510F-4055-B050-B41CE30D25B4}">
+  <dimension ref="B1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="62.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="44.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="76.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="8">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" ref="H2:H22" si="0">CONCATENATE(E2,F2,G2)</f>
+        <v xml:space="preserve">Клиент-серверное приложение "Диспетчер авиапарка", клиенсткая часть. </v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Клиент-серверное приложение "</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Школа иностранных языков", </v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="8">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Клиент-серверное приложение "Диспетчер авиапарка", серверная чатсть.</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8">
+        <v>4</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>CONCATENATE(E23,F23,G23)</f>
+        <v xml:space="preserve">Клиент-серверное приложение "Учет студентов БНТУ", клиенсткая часть. </v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="8">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" ref="H24" si="1">CONCATENATE(E24,F24,G24)</f>
+        <v xml:space="preserve">Клиент-серверное приложение "Учет студентов БНТУ", серверная часть. </v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="1" t="str">
+        <f t="shared" ref="H25:H29" si="2">CONCATENATE(E25,F25,G25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="8">
+        <v>6</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Клиент-серверное приложение "Система общественного питания БНТУ", клиенсткая часть. </v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="8">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Клиент-серверное приложение "Система общественного питания БНТУ", серверная чатсь. </v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{62CD3404-A846-4C1E-8F75-47E6313D7616}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D29">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C868F3D2-985A-44E0-B5E9-715BCE538CB8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{62CD3404-A846-4C1E-8F75-47E6313D7616}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C868F3D2-985A-44E0-B5E9-715BCE538CB8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D15:D29</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="62.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="44.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="76.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>CONCATENATE(E2,F2,G2)</f>
+        <v>Реализация алгоритмов приложения "Терминал космического боевого корабля".</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H28" si="0">CONCATENATE(E3,F3,G3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Применение технологий программирования в приложении "Органайзер задач"</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Разработка архитектуры приложеня "Терминал космического боевого корабля".</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Цветочный магазин, авторизация сотрудников.</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Разработка архитектуры приложеня "Органайзер задач"</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Цветочный магазин, клиенты магазина.</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Клиент-серверное приложение "Исправительное учреждение", условия содержание.</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Цветочный магазин, учет цветов на складе.</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Клиент-серверное приложение "Производство оборудования и запасных частей", производство.</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8">
+        <v>7</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Клиент-серверное приложение "Исправительное учреждение", сотрудники.</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Пользовательский текстовый редактор, интерфейс приложения.</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Пользовательский текстовый редактор, реализация алгоритмов приложения. </v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Клиент-серверное приложение "Производство оборудования и запасных частей", склад.  </v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Клиент-серверное приложение "Производство оборудования и запасных частей", продажа и доставка.</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8">
+        <v>5</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Приложение "Автосервис", ремонт автомобилей.</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Приложение "Автосервис", отдел запчастей.</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Клиент-серверное приложение "Исправительное учреждение", заключенные. </v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8">
+        <v>5</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Приложение "Автосервис", клиенты автосервиса.</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Приложение "Автосервис", сотрудники автосервиса.</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="8">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Клиент-серверное приложение "Производство оборудования и запасных частей", сотрудники.</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="8">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Клиент-серверное приложение "Производство оборудования и запасных частей", клиенты.</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="8">
+        <v>7</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Клиент-серверное приложение "Исправительное учреждение", материальное обеспечение.</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F86D30C4-1667-48D0-A642-902577BD9563}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D28">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{50A78991-CD03-47D4-8589-D5A41C9A884A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F86D30C4-1667-48D0-A642-902577BD9563}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{50A78991-CD03-47D4-8589-D5A41C9A884A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D15:D28</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>